--- a/outputs-HGR-r202/g__Prevotella.xlsx
+++ b/outputs-HGR-r202/g__Prevotella.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BV23"/>
+  <dimension ref="A1:BW23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -805,6 +805,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1033,6 +1038,11 @@
           <t>s__Prevotella sp003447235</t>
         </is>
       </c>
+      <c r="BW2" t="inlineStr">
+        <is>
+          <t>s__Prevotella sp003447235</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1261,6 +1271,11 @@
           <t>s__Prevotella sp900290275</t>
         </is>
       </c>
+      <c r="BW3" t="inlineStr">
+        <is>
+          <t>s__Prevotella sp900290275</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1489,6 +1504,11 @@
           <t>s__Prevotella sp000434975</t>
         </is>
       </c>
+      <c r="BW4" t="inlineStr">
+        <is>
+          <t>s__Prevotella sp000434975</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1717,6 +1737,11 @@
           <t>s__Prevotella stercorea</t>
         </is>
       </c>
+      <c r="BW5" t="inlineStr">
+        <is>
+          <t>s__Prevotella stercorea(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1945,6 +1970,11 @@
           <t>s__Prevotella stercorea</t>
         </is>
       </c>
+      <c r="BW6" t="inlineStr">
+        <is>
+          <t>s__Prevotella stercorea</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -2173,6 +2203,11 @@
           <t>s__Prevotella sp900290275</t>
         </is>
       </c>
+      <c r="BW7" t="inlineStr">
+        <is>
+          <t>s__Prevotella sp900290275</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -2401,6 +2436,11 @@
           <t>s__Prevotella sp900544495</t>
         </is>
       </c>
+      <c r="BW8" t="inlineStr">
+        <is>
+          <t>s__Prevotella sp900544495</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2629,6 +2669,11 @@
           <t>s__Prevotella stercorea</t>
         </is>
       </c>
+      <c r="BW9" t="inlineStr">
+        <is>
+          <t>s__Prevotella stercorea(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2857,6 +2902,11 @@
           <t>s__Prevotella stercorea</t>
         </is>
       </c>
+      <c r="BW10" t="inlineStr">
+        <is>
+          <t>s__Prevotella stercorea(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3085,6 +3135,11 @@
           <t>s__Prevotella sp003447235</t>
         </is>
       </c>
+      <c r="BW11" t="inlineStr">
+        <is>
+          <t>s__Prevotella sp003447235</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -3313,6 +3368,11 @@
           <t>s__Prevotella sp003447235</t>
         </is>
       </c>
+      <c r="BW12" t="inlineStr">
+        <is>
+          <t>s__Prevotella sp003447235</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -3541,6 +3601,11 @@
           <t>s__Prevotella sp000434975</t>
         </is>
       </c>
+      <c r="BW13" t="inlineStr">
+        <is>
+          <t>s__Prevotella sp000434975</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -3769,6 +3834,11 @@
           <t>s__Prevotella sp900290275</t>
         </is>
       </c>
+      <c r="BW14" t="inlineStr">
+        <is>
+          <t>s__Prevotella sp900290275</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -3997,6 +4067,11 @@
           <t>s__Prevotella sp003447235</t>
         </is>
       </c>
+      <c r="BW15" t="inlineStr">
+        <is>
+          <t>s__Prevotella sp003447235(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -4225,6 +4300,11 @@
           <t>s__Prevotella stercorea</t>
         </is>
       </c>
+      <c r="BW16" t="inlineStr">
+        <is>
+          <t>s__Prevotella stercorea</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -4453,6 +4533,11 @@
           <t>s__Prevotella sp002265625</t>
         </is>
       </c>
+      <c r="BW17" t="inlineStr">
+        <is>
+          <t>s__Prevotella sp002265625</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -4681,6 +4766,11 @@
           <t>s__Prevotella sp003447235</t>
         </is>
       </c>
+      <c r="BW18" t="inlineStr">
+        <is>
+          <t>s__Prevotella sp003447235</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -4909,6 +4999,11 @@
           <t>s__Prevotella sp003447235</t>
         </is>
       </c>
+      <c r="BW19" t="inlineStr">
+        <is>
+          <t>s__Prevotella sp003447235</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -5137,6 +5232,11 @@
           <t>s__Prevotella sp003447235</t>
         </is>
       </c>
+      <c r="BW20" t="inlineStr">
+        <is>
+          <t>s__Prevotella sp003447235</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -5365,6 +5465,11 @@
           <t>s__Prevotella sp003447235</t>
         </is>
       </c>
+      <c r="BW21" t="inlineStr">
+        <is>
+          <t>s__Prevotella sp003447235</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -5593,6 +5698,11 @@
           <t>s__Prevotella sp003447235</t>
         </is>
       </c>
+      <c r="BW22" t="inlineStr">
+        <is>
+          <t>s__Prevotella sp003447235</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -5817,6 +5927,11 @@
         <v>0.9332054551959134</v>
       </c>
       <c r="BV23" t="inlineStr">
+        <is>
+          <t>s__Prevotella sp003447235</t>
+        </is>
+      </c>
+      <c r="BW23" t="inlineStr">
         <is>
           <t>s__Prevotella sp003447235</t>
         </is>

--- a/outputs-HGR-r202/g__Prevotella.xlsx
+++ b/outputs-HGR-r202/g__Prevotella.xlsx
@@ -1739,7 +1739,7 @@
       </c>
       <c r="BW5" t="inlineStr">
         <is>
-          <t>s__Prevotella stercorea</t>
+          <t>s__Prevotella stercorea(reject)</t>
         </is>
       </c>
     </row>
@@ -2438,7 +2438,7 @@
       </c>
       <c r="BW8" t="inlineStr">
         <is>
-          <t>s__Prevotella stercorea</t>
+          <t>s__Prevotella stercorea(reject)</t>
         </is>
       </c>
     </row>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="BW9" t="inlineStr">
         <is>
-          <t>s__Prevotella stercorea</t>
+          <t>s__Prevotella stercorea(reject)</t>
         </is>
       </c>
     </row>
@@ -3836,7 +3836,7 @@
       </c>
       <c r="BW14" t="inlineStr">
         <is>
-          <t>s__Prevotella sp003447235</t>
+          <t>s__Prevotella sp003447235(reject)</t>
         </is>
       </c>
     </row>
